--- a/data/pca/factorExposure/factorExposure_2016-12-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-12-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01492357364128134</v>
+        <v>-0.01337415188255778</v>
       </c>
       <c r="C2">
-        <v>0.04341125770697152</v>
+        <v>0.04073112095795651</v>
       </c>
       <c r="D2">
-        <v>0.02404203321433261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05863213070651695</v>
+      </c>
+      <c r="E2">
+        <v>-0.01686100750668432</v>
+      </c>
+      <c r="F2">
+        <v>0.09202420879428798</v>
+      </c>
+      <c r="G2">
+        <v>0.04036200589580052</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05892345573646345</v>
+        <v>-0.03494978849701669</v>
       </c>
       <c r="C3">
-        <v>0.1011448462552531</v>
+        <v>0.08735601391907889</v>
       </c>
       <c r="D3">
-        <v>0.03856641188106823</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.1003629634601931</v>
+      </c>
+      <c r="E3">
+        <v>-0.03195054840922951</v>
+      </c>
+      <c r="F3">
+        <v>0.1004236820307272</v>
+      </c>
+      <c r="G3">
+        <v>-0.06072657939611863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06241680005079978</v>
+        <v>-0.05619040558244326</v>
       </c>
       <c r="C4">
-        <v>0.06178708642057586</v>
+        <v>0.06090581525927261</v>
       </c>
       <c r="D4">
-        <v>0.002345438596656854</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0558358838946505</v>
+      </c>
+      <c r="E4">
+        <v>-0.01003254097314982</v>
+      </c>
+      <c r="F4">
+        <v>0.09659586884932274</v>
+      </c>
+      <c r="G4">
+        <v>-0.0252501246981328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02760794276378771</v>
+        <v>-0.03507928343622865</v>
       </c>
       <c r="C6">
-        <v>0.05216521348216397</v>
+        <v>0.03849792496974135</v>
       </c>
       <c r="D6">
-        <v>0.007120450175910766</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06247656117060455</v>
+      </c>
+      <c r="E6">
+        <v>-0.01772240153153741</v>
+      </c>
+      <c r="F6">
+        <v>0.08899677161393504</v>
+      </c>
+      <c r="G6">
+        <v>-0.006290005615456404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0197449788204592</v>
+        <v>-0.01948223989732303</v>
       </c>
       <c r="C7">
-        <v>0.04467704892514601</v>
+        <v>0.03578068876045149</v>
       </c>
       <c r="D7">
-        <v>-0.0101716061445854</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03246811049266973</v>
+      </c>
+      <c r="E7">
+        <v>0.001922877381522302</v>
+      </c>
+      <c r="F7">
+        <v>0.1180220740845671</v>
+      </c>
+      <c r="G7">
+        <v>0.01324495847267827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.001447752076221588</v>
+        <v>-0.005823148841074892</v>
       </c>
       <c r="C8">
-        <v>0.008988817598298534</v>
+        <v>0.0184276566184067</v>
       </c>
       <c r="D8">
-        <v>0.01847738603600989</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0355551151349014</v>
+      </c>
+      <c r="E8">
+        <v>-0.009646611784909342</v>
+      </c>
+      <c r="F8">
+        <v>0.06925758064305235</v>
+      </c>
+      <c r="G8">
+        <v>-0.004032850315067084</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02647902252771542</v>
+        <v>-0.03451551498787169</v>
       </c>
       <c r="C9">
-        <v>0.04347349377893883</v>
+        <v>0.04684230770926577</v>
       </c>
       <c r="D9">
-        <v>-0.003766785457949363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0394224698575782</v>
+      </c>
+      <c r="E9">
+        <v>-0.006692831255404904</v>
+      </c>
+      <c r="F9">
+        <v>0.09962959338639082</v>
+      </c>
+      <c r="G9">
+        <v>-0.007814662336629622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07576854729078233</v>
+        <v>-0.09445433336709598</v>
       </c>
       <c r="C10">
-        <v>-0.2004539192715375</v>
+        <v>-0.1955487627192436</v>
       </c>
       <c r="D10">
-        <v>0.02158032008921726</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01224791182071418</v>
+      </c>
+      <c r="E10">
+        <v>-0.03135182269896348</v>
+      </c>
+      <c r="F10">
+        <v>0.05298205338293153</v>
+      </c>
+      <c r="G10">
+        <v>0.0007667870081278598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0399476109613404</v>
+        <v>-0.03590124363458808</v>
       </c>
       <c r="C11">
-        <v>0.05238772664727332</v>
+        <v>0.05110599606589041</v>
       </c>
       <c r="D11">
-        <v>-0.00566877297379752</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.02889933465877181</v>
+      </c>
+      <c r="E11">
+        <v>0.01360967825156225</v>
+      </c>
+      <c r="F11">
+        <v>0.07175737181792191</v>
+      </c>
+      <c r="G11">
+        <v>-0.002063371246948696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03449406885508929</v>
+        <v>-0.03633243590452247</v>
       </c>
       <c r="C12">
-        <v>0.04332132676907335</v>
+        <v>0.04655404987368832</v>
       </c>
       <c r="D12">
-        <v>-0.009040054910667181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.01936289740364764</v>
+      </c>
+      <c r="E12">
+        <v>0.004105885728590254</v>
+      </c>
+      <c r="F12">
+        <v>0.07133203328565675</v>
+      </c>
+      <c r="G12">
+        <v>0.0001960845769248606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.007791058076658246</v>
+        <v>-0.01201951738937853</v>
       </c>
       <c r="C13">
-        <v>0.04023388477694526</v>
+        <v>0.03799738637745185</v>
       </c>
       <c r="D13">
-        <v>0.02019022673055627</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06552925931476911</v>
+      </c>
+      <c r="E13">
+        <v>-0.02710844716208632</v>
+      </c>
+      <c r="F13">
+        <v>0.1360150517390757</v>
+      </c>
+      <c r="G13">
+        <v>-0.004522994400052215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007586203067013464</v>
+        <v>-0.008104766695421364</v>
       </c>
       <c r="C14">
-        <v>0.02841500062482764</v>
+        <v>0.02742293258656248</v>
       </c>
       <c r="D14">
-        <v>-0.01066406286032291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02493867501005094</v>
+      </c>
+      <c r="E14">
+        <v>-0.006731686479956043</v>
+      </c>
+      <c r="F14">
+        <v>0.1097318965346439</v>
+      </c>
+      <c r="G14">
+        <v>0.01947808258253935</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03476617591022719</v>
+        <v>-0.03402063351642273</v>
       </c>
       <c r="C16">
-        <v>0.03970974475129021</v>
+        <v>0.0441337466875285</v>
       </c>
       <c r="D16">
-        <v>-0.0006001017057917293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02520519388822633</v>
+      </c>
+      <c r="E16">
+        <v>-0.001813330238544939</v>
+      </c>
+      <c r="F16">
+        <v>0.07589180988621901</v>
+      </c>
+      <c r="G16">
+        <v>0.01088119837680714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.03348614817419644</v>
+        <v>-0.01998778241606429</v>
       </c>
       <c r="C19">
-        <v>0.05653393665520272</v>
+        <v>0.04793789552319963</v>
       </c>
       <c r="D19">
-        <v>0.04065353974191172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1005871861447813</v>
+      </c>
+      <c r="E19">
+        <v>-0.03082228637413454</v>
+      </c>
+      <c r="F19">
+        <v>0.1362984621634543</v>
+      </c>
+      <c r="G19">
+        <v>0.02676129300652439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01238991294188622</v>
+        <v>-0.0156832717364714</v>
       </c>
       <c r="C20">
-        <v>0.04370944730138101</v>
+        <v>0.03764146224224258</v>
       </c>
       <c r="D20">
-        <v>0.02235788795971807</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04685031590314524</v>
+      </c>
+      <c r="E20">
+        <v>-0.03352546396724565</v>
+      </c>
+      <c r="F20">
+        <v>0.1041898827533679</v>
+      </c>
+      <c r="G20">
+        <v>0.01071077961711185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.005857360985018624</v>
+        <v>-0.008576163847684042</v>
       </c>
       <c r="C21">
-        <v>0.0371273983881671</v>
+        <v>0.03671139590943823</v>
       </c>
       <c r="D21">
-        <v>0.03186023458425381</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0686131867975972</v>
+      </c>
+      <c r="E21">
+        <v>-0.02765222032177781</v>
+      </c>
+      <c r="F21">
+        <v>0.1554652797971926</v>
+      </c>
+      <c r="G21">
+        <v>0.01138998002030615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0031605377647816</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.01384527374552193</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.02488498906463113</v>
+      </c>
+      <c r="E22">
+        <v>-0.0004903231529359525</v>
+      </c>
+      <c r="F22">
+        <v>0.01715332537897855</v>
+      </c>
+      <c r="G22">
+        <v>-0.03342515767891231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.003199158984167423</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.01378415891141185</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.02467989508908553</v>
+      </c>
+      <c r="E23">
+        <v>-0.0007960252592003537</v>
+      </c>
+      <c r="F23">
+        <v>0.01696339342964961</v>
+      </c>
+      <c r="G23">
+        <v>-0.03346256957348907</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0282022314751338</v>
+        <v>-0.03072286353732482</v>
       </c>
       <c r="C24">
-        <v>0.04654845935375071</v>
+        <v>0.04994009626031894</v>
       </c>
       <c r="D24">
-        <v>-0.009012968126986357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02391488148047512</v>
+      </c>
+      <c r="E24">
+        <v>0.005482607497523565</v>
+      </c>
+      <c r="F24">
+        <v>0.07928309299926468</v>
+      </c>
+      <c r="G24">
+        <v>0.005569080619353037</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04595593682065242</v>
+        <v>-0.0426088491407693</v>
       </c>
       <c r="C25">
-        <v>0.05361045981603794</v>
+        <v>0.05615840005273298</v>
       </c>
       <c r="D25">
-        <v>-0.02000797524742029</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01760521338642583</v>
+      </c>
+      <c r="E25">
+        <v>0.005978285108466258</v>
+      </c>
+      <c r="F25">
+        <v>0.08730039462628378</v>
+      </c>
+      <c r="G25">
+        <v>-0.01061751048783294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.007401075181933808</v>
+        <v>-0.01465817329729027</v>
       </c>
       <c r="C26">
-        <v>0.01105802320249076</v>
+        <v>0.01139684765220529</v>
       </c>
       <c r="D26">
-        <v>0.003911992321136487</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01988645008871232</v>
+      </c>
+      <c r="E26">
+        <v>-0.007885277800644184</v>
+      </c>
+      <c r="F26">
+        <v>0.08246105868624255</v>
+      </c>
+      <c r="G26">
+        <v>0.02459378528993688</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09023079476810435</v>
+        <v>-0.1273016651302547</v>
       </c>
       <c r="C28">
-        <v>-0.2281947892302139</v>
+        <v>-0.2461361088288456</v>
       </c>
       <c r="D28">
-        <v>0.01239333552547064</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.005124367937372797</v>
+      </c>
+      <c r="E28">
+        <v>-0.03500058000821646</v>
+      </c>
+      <c r="F28">
+        <v>0.06134742828196917</v>
+      </c>
+      <c r="G28">
+        <v>-0.006031048860148811</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01142920275952555</v>
+        <v>-0.008068286324093538</v>
       </c>
       <c r="C29">
-        <v>0.02167098239397136</v>
+        <v>0.02316358125594097</v>
       </c>
       <c r="D29">
-        <v>-0.009831685244827835</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01544412987046781</v>
+      </c>
+      <c r="E29">
+        <v>-0.01105872560676427</v>
+      </c>
+      <c r="F29">
+        <v>0.1029593515167213</v>
+      </c>
+      <c r="G29">
+        <v>0.005166800867098114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03956695887354934</v>
+        <v>-0.03757317188851407</v>
       </c>
       <c r="C30">
-        <v>0.07198419680656321</v>
+        <v>0.06427517578468603</v>
       </c>
       <c r="D30">
-        <v>-0.001138635359176243</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09048290089674131</v>
+      </c>
+      <c r="E30">
+        <v>0.01474127973538356</v>
+      </c>
+      <c r="F30">
+        <v>0.110213723698957</v>
+      </c>
+      <c r="G30">
+        <v>0.02987774826766079</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.04244848024543946</v>
+        <v>-0.05652559186845376</v>
       </c>
       <c r="C31">
-        <v>0.02923360930867848</v>
+        <v>0.04258142546157686</v>
       </c>
       <c r="D31">
-        <v>-0.01115846185988177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.001590039720728037</v>
+      </c>
+      <c r="E31">
+        <v>-0.03282119004703998</v>
+      </c>
+      <c r="F31">
+        <v>0.09474865955399808</v>
+      </c>
+      <c r="G31">
+        <v>-0.02373018240041591</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006267792460191953</v>
+        <v>-0.002923958290147161</v>
       </c>
       <c r="C32">
-        <v>0.03451384181492201</v>
+        <v>0.02468693439162347</v>
       </c>
       <c r="D32">
-        <v>0.01350646107363696</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04485810189101767</v>
+      </c>
+      <c r="E32">
+        <v>0.005379515866936028</v>
+      </c>
+      <c r="F32">
+        <v>0.08024145993130875</v>
+      </c>
+      <c r="G32">
+        <v>0.01336058762651419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02955198626636006</v>
+        <v>-0.02614768143258557</v>
       </c>
       <c r="C33">
-        <v>0.05559240899162612</v>
+        <v>0.0465036421503221</v>
       </c>
       <c r="D33">
-        <v>0.008894403506846687</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07354133627024036</v>
+      </c>
+      <c r="E33">
+        <v>-0.006612444137186898</v>
+      </c>
+      <c r="F33">
+        <v>0.1542884979855999</v>
+      </c>
+      <c r="G33">
+        <v>-0.003243126838854381</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05415929144455575</v>
+        <v>-0.04254251278186316</v>
       </c>
       <c r="C34">
-        <v>0.05179002248913287</v>
+        <v>0.06064710486543522</v>
       </c>
       <c r="D34">
-        <v>-0.01508035011317037</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.02327808193392589</v>
+      </c>
+      <c r="E34">
+        <v>0.01952660229656284</v>
+      </c>
+      <c r="F34">
+        <v>0.07762339181631625</v>
+      </c>
+      <c r="G34">
+        <v>0.000623212099926291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.008522990072591609</v>
+        <v>-0.01494927716786089</v>
       </c>
       <c r="C36">
-        <v>0.006914381077304145</v>
+        <v>0.007144877709377669</v>
       </c>
       <c r="D36">
-        <v>-0.00387827846052595</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02233428160284606</v>
+      </c>
+      <c r="E36">
+        <v>-0.0126253105607083</v>
+      </c>
+      <c r="F36">
+        <v>0.09660294771421878</v>
+      </c>
+      <c r="G36">
+        <v>0.001742746054853626</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03763500602248461</v>
+        <v>-0.03124335596444753</v>
       </c>
       <c r="C38">
-        <v>0.01854067279477871</v>
+        <v>0.02147603795006171</v>
       </c>
       <c r="D38">
-        <v>-0.00641040966119557</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02107149593100068</v>
+      </c>
+      <c r="E38">
+        <v>-0.01480598554936874</v>
+      </c>
+      <c r="F38">
+        <v>0.0869953337209973</v>
+      </c>
+      <c r="G38">
+        <v>-0.002408297847647612</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.0381088836401118</v>
+        <v>-0.03683851234174131</v>
       </c>
       <c r="C39">
-        <v>0.08441642825996719</v>
+        <v>0.07419656621486277</v>
       </c>
       <c r="D39">
-        <v>0.004318699698560599</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04664458283239741</v>
+      </c>
+      <c r="E39">
+        <v>0.0141042050267839</v>
+      </c>
+      <c r="F39">
+        <v>0.08507311360574314</v>
+      </c>
+      <c r="G39">
+        <v>0.0339617570479782</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01686200876823825</v>
+        <v>-0.01625191817324155</v>
       </c>
       <c r="C40">
-        <v>0.02705971943778969</v>
+        <v>0.03637597703738091</v>
       </c>
       <c r="D40">
-        <v>0.01955496326123313</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03678642279027946</v>
+      </c>
+      <c r="E40">
+        <v>-0.03081961147019543</v>
+      </c>
+      <c r="F40">
+        <v>0.1184400401600209</v>
+      </c>
+      <c r="G40">
+        <v>-0.03645360429356349</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01139605685168559</v>
+        <v>-0.01855592004884805</v>
       </c>
       <c r="C41">
-        <v>-0.001100105969893664</v>
+        <v>-0.001850573133203766</v>
       </c>
       <c r="D41">
-        <v>-0.005081491896620965</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01782242991837304</v>
+      </c>
+      <c r="E41">
+        <v>-0.01632646478038177</v>
+      </c>
+      <c r="F41">
+        <v>0.08711543577496252</v>
+      </c>
+      <c r="G41">
+        <v>0.008431774128444402</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.005766224908544485</v>
+        <v>-0.003641382498161547</v>
       </c>
       <c r="C42">
-        <v>0.04943052794154018</v>
+        <v>0.02688501834216007</v>
       </c>
       <c r="D42">
-        <v>0.02094630425904081</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.001186288555710704</v>
+      </c>
+      <c r="E42">
+        <v>-0.02410976147728898</v>
+      </c>
+      <c r="F42">
+        <v>-0.03595588598183629</v>
+      </c>
+      <c r="G42">
+        <v>0.01002040181411983</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03058410205600447</v>
+        <v>-0.03198778991361893</v>
       </c>
       <c r="C43">
-        <v>0.009150856702899932</v>
+        <v>0.01124215037688604</v>
       </c>
       <c r="D43">
-        <v>-0.004101805660708469</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0376695490424221</v>
+      </c>
+      <c r="E43">
+        <v>-0.01287632227861016</v>
+      </c>
+      <c r="F43">
+        <v>0.1121722088775795</v>
+      </c>
+      <c r="G43">
+        <v>-0.01262054849280181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02172938555608084</v>
+        <v>-0.01517876693701535</v>
       </c>
       <c r="C44">
-        <v>0.05401500287890172</v>
+        <v>0.05075604204844782</v>
       </c>
       <c r="D44">
-        <v>0.006470024935983634</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04125701493484605</v>
+      </c>
+      <c r="E44">
+        <v>-0.02408068009447324</v>
+      </c>
+      <c r="F44">
+        <v>0.1136919454188345</v>
+      </c>
+      <c r="G44">
+        <v>0.01087244107034102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0006660261845668653</v>
+        <v>-0.0100139501828197</v>
       </c>
       <c r="C46">
-        <v>0.01441669287494787</v>
+        <v>0.01825183238416912</v>
       </c>
       <c r="D46">
-        <v>-0.01849633845445775</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.008343829152907429</v>
+      </c>
+      <c r="E46">
+        <v>-0.01627111438908573</v>
+      </c>
+      <c r="F46">
+        <v>0.1106835927653015</v>
+      </c>
+      <c r="G46">
+        <v>0.01185611972319598</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.07576672326417713</v>
+        <v>-0.08604030099019609</v>
       </c>
       <c r="C47">
-        <v>0.06553514285158428</v>
+        <v>0.07274450691926383</v>
       </c>
       <c r="D47">
-        <v>-0.008888606298247904</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.009095612490838883</v>
+      </c>
+      <c r="E47">
+        <v>-0.04149224652585184</v>
+      </c>
+      <c r="F47">
+        <v>0.08950843863692727</v>
+      </c>
+      <c r="G47">
+        <v>-0.03092034093816747</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01593516978123221</v>
+        <v>-0.01634067783256765</v>
       </c>
       <c r="C48">
-        <v>0.009829484653958971</v>
+        <v>0.01383943019791014</v>
       </c>
       <c r="D48">
-        <v>-0.007951618453546286</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01573749097819836</v>
+      </c>
+      <c r="E48">
+        <v>-0.02113641001553447</v>
+      </c>
+      <c r="F48">
+        <v>0.1053667161902851</v>
+      </c>
+      <c r="G48">
+        <v>0.005641549760986175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08227439063015592</v>
+        <v>-0.07726613716195889</v>
       </c>
       <c r="C50">
-        <v>0.06108898901286665</v>
+        <v>0.06863725148549878</v>
       </c>
       <c r="D50">
-        <v>-0.01564040300010903</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0007648638694127566</v>
+      </c>
+      <c r="E50">
+        <v>-0.03917420133766519</v>
+      </c>
+      <c r="F50">
+        <v>0.09776499844286583</v>
+      </c>
+      <c r="G50">
+        <v>-0.05449092313993323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01576813210407013</v>
+        <v>-0.01225217001220762</v>
       </c>
       <c r="C51">
-        <v>0.03772684655014118</v>
+        <v>0.03202132504643051</v>
       </c>
       <c r="D51">
-        <v>-0.004865269167793784</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04283585726098785</v>
+      </c>
+      <c r="E51">
+        <v>0.005294742633343996</v>
+      </c>
+      <c r="F51">
+        <v>0.1020520011659399</v>
+      </c>
+      <c r="G51">
+        <v>0.02245765408107902</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1018354897543183</v>
+        <v>-0.09001623031899893</v>
       </c>
       <c r="C53">
-        <v>0.06886133038641401</v>
+        <v>0.08663481620059492</v>
       </c>
       <c r="D53">
-        <v>-0.03502254592282998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03232421550036019</v>
+      </c>
+      <c r="E53">
+        <v>-0.04895209099347685</v>
+      </c>
+      <c r="F53">
+        <v>0.0976427755726509</v>
+      </c>
+      <c r="G53">
+        <v>-0.04416861655511994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02809410342076404</v>
+        <v>-0.03039255780762885</v>
       </c>
       <c r="C54">
-        <v>0.003044111304948229</v>
+        <v>0.01889188432955926</v>
       </c>
       <c r="D54">
-        <v>0.004198530262794383</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02972296328887999</v>
+      </c>
+      <c r="E54">
+        <v>-0.01148860359520936</v>
+      </c>
+      <c r="F54">
+        <v>0.1093622962522294</v>
+      </c>
+      <c r="G54">
+        <v>0.007675059501906797</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.0760524130703692</v>
+        <v>-0.08266136303056114</v>
       </c>
       <c r="C55">
-        <v>0.06316449995628232</v>
+        <v>0.06956599487923773</v>
       </c>
       <c r="D55">
-        <v>-0.02794985913318465</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03579042341921439</v>
+      </c>
+      <c r="E55">
+        <v>-0.04679399611986539</v>
+      </c>
+      <c r="F55">
+        <v>0.0687436284072481</v>
+      </c>
+      <c r="G55">
+        <v>-0.0338690826089881</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1554688079956617</v>
+        <v>-0.1451189145475519</v>
       </c>
       <c r="C56">
-        <v>0.09018261254908122</v>
+        <v>0.1048667647786587</v>
       </c>
       <c r="D56">
-        <v>-0.03204365749563439</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04386600762356275</v>
+      </c>
+      <c r="E56">
+        <v>-0.05431151053805067</v>
+      </c>
+      <c r="F56">
+        <v>0.05682601947420416</v>
+      </c>
+      <c r="G56">
+        <v>-0.04882608284038786</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.005662843712788876</v>
+        <v>-0.002311637623343543</v>
       </c>
       <c r="C57">
-        <v>0.008447016057833982</v>
+        <v>0.004476245435955876</v>
       </c>
       <c r="D57">
-        <v>0.03113708604203895</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02652006092356632</v>
+      </c>
+      <c r="E57">
+        <v>-0.002289115883204879</v>
+      </c>
+      <c r="F57">
+        <v>0.01009843758112151</v>
+      </c>
+      <c r="G57">
+        <v>0.002036453233935735</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05539641485130553</v>
+        <v>-0.03676418554192512</v>
       </c>
       <c r="C58">
-        <v>0.06961438350552163</v>
+        <v>0.03125674740308747</v>
       </c>
       <c r="D58">
-        <v>0.963282713683756</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.6818722476018092</v>
+      </c>
+      <c r="E58">
+        <v>-0.6240633525559196</v>
+      </c>
+      <c r="F58">
+        <v>-0.3128338336808508</v>
+      </c>
+      <c r="G58">
+        <v>-0.03297934501037157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1374022007247271</v>
+        <v>-0.1489873422105166</v>
       </c>
       <c r="C59">
-        <v>-0.2264816286794247</v>
+        <v>-0.2042366778885246</v>
       </c>
       <c r="D59">
-        <v>0.0134874948136788</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02205440048324114</v>
+      </c>
+      <c r="E59">
+        <v>-0.01265586140178461</v>
+      </c>
+      <c r="F59">
+        <v>0.03887140759442054</v>
+      </c>
+      <c r="G59">
+        <v>0.02420317251963891</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3124878539891805</v>
+        <v>-0.2839898297533615</v>
       </c>
       <c r="C60">
-        <v>0.07541880033805642</v>
+        <v>0.09480976393165567</v>
       </c>
       <c r="D60">
-        <v>0.02610070072730356</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1540646257492632</v>
+      </c>
+      <c r="E60">
+        <v>0.2921528115340725</v>
+      </c>
+      <c r="F60">
+        <v>-0.1323212446426591</v>
+      </c>
+      <c r="G60">
+        <v>-0.04787993619699225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.03491758535230556</v>
+        <v>-0.03942429812042837</v>
       </c>
       <c r="C61">
-        <v>0.06186986265297097</v>
+        <v>0.06183614810542081</v>
       </c>
       <c r="D61">
-        <v>0.003966176034162462</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04010076018842255</v>
+      </c>
+      <c r="E61">
+        <v>0.0043484953174706</v>
+      </c>
+      <c r="F61">
+        <v>0.08836703710699609</v>
+      </c>
+      <c r="G61">
+        <v>0.0009676172519068496</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01535755859673615</v>
+        <v>-0.01546547639671663</v>
       </c>
       <c r="C63">
-        <v>0.02663418213229784</v>
+        <v>0.02713423435877911</v>
       </c>
       <c r="D63">
-        <v>-0.01694464812668461</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01535757748423368</v>
+      </c>
+      <c r="E63">
+        <v>-0.01265312559222869</v>
+      </c>
+      <c r="F63">
+        <v>0.08944077343719818</v>
+      </c>
+      <c r="G63">
+        <v>-0.01868021231309854</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04704706588224605</v>
+        <v>-0.05169659770849282</v>
       </c>
       <c r="C64">
-        <v>0.02872525770503082</v>
+        <v>0.04758037173656129</v>
       </c>
       <c r="D64">
-        <v>-0.01454320194522668</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01055127779985352</v>
+      </c>
+      <c r="E64">
+        <v>0.003312298145283641</v>
+      </c>
+      <c r="F64">
+        <v>0.09133334311642842</v>
+      </c>
+      <c r="G64">
+        <v>0.01682830954065323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08836821567000086</v>
+        <v>-0.07080187352949681</v>
       </c>
       <c r="C65">
-        <v>0.0599439275956395</v>
+        <v>0.04451103022136231</v>
       </c>
       <c r="D65">
-        <v>0.009809945002963951</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.06873983202355796</v>
+      </c>
+      <c r="E65">
+        <v>0.003483784326634723</v>
+      </c>
+      <c r="F65">
+        <v>0.03964262456184857</v>
+      </c>
+      <c r="G65">
+        <v>0.004998705222136916</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06241224585990777</v>
+        <v>-0.05019214554806578</v>
       </c>
       <c r="C66">
-        <v>0.1196127535577859</v>
+        <v>0.09823288675415631</v>
       </c>
       <c r="D66">
-        <v>0.009959361427322278</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.06995951301044276</v>
+      </c>
+      <c r="E66">
+        <v>0.01671156202168845</v>
+      </c>
+      <c r="F66">
+        <v>0.0909622879372209</v>
+      </c>
+      <c r="G66">
+        <v>0.0148696738318422</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06398649407414059</v>
+        <v>-0.05340894242101026</v>
       </c>
       <c r="C67">
-        <v>0.02107463259897007</v>
+        <v>0.02691472024553427</v>
       </c>
       <c r="D67">
-        <v>-0.01189896873585916</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.007114986422433279</v>
+      </c>
+      <c r="E67">
+        <v>-0.008308635360774246</v>
+      </c>
+      <c r="F67">
+        <v>0.07186900504862158</v>
+      </c>
+      <c r="G67">
+        <v>-0.008031737472762838</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1096809647751094</v>
+        <v>-0.1502747591735378</v>
       </c>
       <c r="C68">
-        <v>-0.2896629710143606</v>
+        <v>-0.268412128067481</v>
       </c>
       <c r="D68">
-        <v>0.02540443087397516</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.008684663855253703</v>
+      </c>
+      <c r="E68">
+        <v>-0.04161586566734762</v>
+      </c>
+      <c r="F68">
+        <v>0.02381529575756686</v>
+      </c>
+      <c r="G68">
+        <v>0.005191134256910192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08380343106394594</v>
+        <v>-0.08384283948711119</v>
       </c>
       <c r="C69">
-        <v>0.0596990025494644</v>
+        <v>0.07717228339115124</v>
       </c>
       <c r="D69">
-        <v>-0.02972279758453128</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01013202032640222</v>
+      </c>
+      <c r="E69">
+        <v>-0.01352143771254785</v>
+      </c>
+      <c r="F69">
+        <v>0.09812148768225123</v>
+      </c>
+      <c r="G69">
+        <v>-0.002270660676260792</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1169393996317181</v>
+        <v>-0.1394041864268737</v>
       </c>
       <c r="C71">
-        <v>-0.2418784626892984</v>
+        <v>-0.238085921221443</v>
       </c>
       <c r="D71">
-        <v>0.02602905277305282</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.02043447863192692</v>
+      </c>
+      <c r="E71">
+        <v>-0.04129627606925934</v>
+      </c>
+      <c r="F71">
+        <v>0.06737533409801805</v>
+      </c>
+      <c r="G71">
+        <v>-0.01703525171944755</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.07878448809993678</v>
+        <v>-0.08763370978305315</v>
       </c>
       <c r="C72">
-        <v>0.05723049628482108</v>
+        <v>0.05651266459443646</v>
       </c>
       <c r="D72">
-        <v>-0.04823321466406676</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.007448958615366976</v>
+      </c>
+      <c r="E72">
+        <v>0.02345215662808132</v>
+      </c>
+      <c r="F72">
+        <v>0.07951422515720552</v>
+      </c>
+      <c r="G72">
+        <v>-0.008912821843491441</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.45086077452512</v>
+        <v>-0.3625130565247383</v>
       </c>
       <c r="C73">
-        <v>0.07328714495937462</v>
+        <v>0.07905055300026763</v>
       </c>
       <c r="D73">
-        <v>0.04247243315589688</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.3219035491105094</v>
+      </c>
+      <c r="E73">
+        <v>0.52493332922029</v>
+      </c>
+      <c r="F73">
+        <v>-0.3229621443003612</v>
+      </c>
+      <c r="G73">
+        <v>-0.1661424052930758</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1207806558740312</v>
+        <v>-0.1128993319949459</v>
       </c>
       <c r="C74">
-        <v>0.1120969982722508</v>
+        <v>0.1063213039735783</v>
       </c>
       <c r="D74">
-        <v>-0.02544446245954115</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01854209852225654</v>
+      </c>
+      <c r="E74">
+        <v>-0.06493375507239288</v>
+      </c>
+      <c r="F74">
+        <v>0.08159009699983054</v>
+      </c>
+      <c r="G74">
+        <v>-0.05796101365469052</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2716695739254085</v>
+        <v>-0.2597440225306356</v>
       </c>
       <c r="C75">
-        <v>0.1200328201493652</v>
+        <v>0.1396769621368865</v>
       </c>
       <c r="D75">
-        <v>-0.05680035442235793</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1148953339150491</v>
+      </c>
+      <c r="E75">
+        <v>-0.1248223825077867</v>
+      </c>
+      <c r="F75">
+        <v>0.02246114482683235</v>
+      </c>
+      <c r="G75">
+        <v>-0.07986515145751395</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1237861678056128</v>
+        <v>-0.1282111223494422</v>
       </c>
       <c r="C76">
-        <v>0.1026173184611773</v>
+        <v>0.1048453491860304</v>
       </c>
       <c r="D76">
-        <v>-0.04113655802963159</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04963856291737229</v>
+      </c>
+      <c r="E76">
+        <v>-0.08321531035576504</v>
+      </c>
+      <c r="F76">
+        <v>0.07671067713183947</v>
+      </c>
+      <c r="G76">
+        <v>-0.05104935635565554</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07379596957703621</v>
+        <v>-0.06707476073996811</v>
       </c>
       <c r="C77">
-        <v>0.05726111921759233</v>
+        <v>0.06208818885572811</v>
       </c>
       <c r="D77">
-        <v>0.03049786641115351</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05569660242128492</v>
+      </c>
+      <c r="E77">
+        <v>-0.03934764497735047</v>
+      </c>
+      <c r="F77">
+        <v>0.09980739419696351</v>
+      </c>
+      <c r="G77">
+        <v>0.1397715659726717</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04569849348501634</v>
+        <v>-0.04231342069149597</v>
       </c>
       <c r="C78">
-        <v>0.04770263303517228</v>
+        <v>0.05493178160365818</v>
       </c>
       <c r="D78">
-        <v>0.005579330445555648</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05767307077779993</v>
+      </c>
+      <c r="E78">
+        <v>0.01794664974116827</v>
+      </c>
+      <c r="F78">
+        <v>0.09934471482754194</v>
+      </c>
+      <c r="G78">
+        <v>0.01228932251587144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.00182453781243588</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.02444473110458416</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.00270494075354349</v>
+      </c>
+      <c r="E79">
+        <v>-0.01842718598870065</v>
+      </c>
+      <c r="F79">
+        <v>0.04265206089210024</v>
+      </c>
+      <c r="G79">
+        <v>-0.03492786942013824</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.05565203616570035</v>
+        <v>-0.04048580746449975</v>
       </c>
       <c r="C80">
-        <v>0.05698106732744337</v>
+        <v>0.04796513672739482</v>
       </c>
       <c r="D80">
-        <v>0.01448400722829143</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04076876401517057</v>
+      </c>
+      <c r="E80">
+        <v>-0.001163607972903546</v>
+      </c>
+      <c r="F80">
+        <v>0.03368639716569197</v>
+      </c>
+      <c r="G80">
+        <v>0.04643940177729834</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1395660826381462</v>
+        <v>-0.1426667730249276</v>
       </c>
       <c r="C81">
-        <v>0.0767114845401783</v>
+        <v>0.09462746541585546</v>
       </c>
       <c r="D81">
-        <v>-0.03537561595706784</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07794571595779427</v>
+      </c>
+      <c r="E81">
+        <v>-0.1019719172793422</v>
+      </c>
+      <c r="F81">
+        <v>0.04098837689506873</v>
+      </c>
+      <c r="G81">
+        <v>-0.05366499328020329</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.05815002326630427</v>
+        <v>-0.1791251057192372</v>
       </c>
       <c r="C82">
-        <v>0.04033866085125734</v>
+        <v>0.1249734515874413</v>
       </c>
       <c r="D82">
-        <v>-0.02141693147451674</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.1929054366610215</v>
+      </c>
+      <c r="E82">
+        <v>-0.05303926852023168</v>
+      </c>
+      <c r="F82">
+        <v>0.04631068188686963</v>
+      </c>
+      <c r="G82">
+        <v>0.01074910229004401</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03061613579710717</v>
+        <v>-0.02831066144323559</v>
       </c>
       <c r="C83">
-        <v>0.01908108359414894</v>
+        <v>0.03239299495842649</v>
       </c>
       <c r="D83">
-        <v>0.01726661383807531</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03395052501477847</v>
+      </c>
+      <c r="E83">
+        <v>0.006857777949896896</v>
+      </c>
+      <c r="F83">
+        <v>0.05487542496163321</v>
+      </c>
+      <c r="G83">
+        <v>0.03242176725184389</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2502621219193163</v>
+        <v>-0.2132017405468581</v>
       </c>
       <c r="C85">
-        <v>0.1170151712484276</v>
+        <v>0.1271728247258469</v>
       </c>
       <c r="D85">
-        <v>-0.1196471677112951</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1137811138954387</v>
+      </c>
+      <c r="E85">
+        <v>-0.04898365678209449</v>
+      </c>
+      <c r="F85">
+        <v>-0.01146389493225291</v>
+      </c>
+      <c r="G85">
+        <v>-0.1242260685317555</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01205000094011249</v>
+        <v>-0.01382259991543727</v>
       </c>
       <c r="C86">
-        <v>0.0211678066262455</v>
+        <v>0.02355110383894303</v>
       </c>
       <c r="D86">
-        <v>0.0124876046448963</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.0796967505270914</v>
+      </c>
+      <c r="E86">
+        <v>0.003253688775541648</v>
+      </c>
+      <c r="F86">
+        <v>0.1641323091097819</v>
+      </c>
+      <c r="G86">
+        <v>0.03626296185461696</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01376456217152772</v>
+        <v>-0.0202772389083768</v>
       </c>
       <c r="C87">
-        <v>0.02290051255930575</v>
+        <v>0.01576279999770994</v>
       </c>
       <c r="D87">
-        <v>0.07940223707072246</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09696828761927331</v>
+      </c>
+      <c r="E87">
+        <v>-0.04342331173489772</v>
+      </c>
+      <c r="F87">
+        <v>0.1055862765026164</v>
+      </c>
+      <c r="G87">
+        <v>0.05020014841392205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.09839463559664155</v>
+        <v>-0.09000817147323019</v>
       </c>
       <c r="C88">
-        <v>0.05988334175896408</v>
+        <v>0.06083856605845034</v>
       </c>
       <c r="D88">
-        <v>-0.002787679614337014</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01165067451609162</v>
+      </c>
+      <c r="E88">
+        <v>-0.01418005237775345</v>
+      </c>
+      <c r="F88">
+        <v>0.09571506042189236</v>
+      </c>
+      <c r="G88">
+        <v>0.04952107510240651</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1848991650326152</v>
+        <v>-0.2119519462179128</v>
       </c>
       <c r="C89">
-        <v>-0.3778959647088948</v>
+        <v>-0.3709607045202388</v>
       </c>
       <c r="D89">
-        <v>-0.01824141867356309</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01895598605180354</v>
+      </c>
+      <c r="E89">
+        <v>-0.00651707423334237</v>
+      </c>
+      <c r="F89">
+        <v>0.0763246288284366</v>
+      </c>
+      <c r="G89">
+        <v>0.08969152135407321</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1685693238727174</v>
+        <v>-0.1992823764755035</v>
       </c>
       <c r="C90">
-        <v>-0.3535477932914726</v>
+        <v>-0.3238972596327579</v>
       </c>
       <c r="D90">
-        <v>0.02040359526013844</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01435393246018678</v>
+      </c>
+      <c r="E90">
+        <v>-0.05174958969058244</v>
+      </c>
+      <c r="F90">
+        <v>0.04962388607835982</v>
+      </c>
+      <c r="G90">
+        <v>0.02864497684659859</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.2092101502023121</v>
+        <v>-0.1927655652840299</v>
       </c>
       <c r="C91">
-        <v>0.107048550901502</v>
+        <v>0.1353480736769579</v>
       </c>
       <c r="D91">
-        <v>-0.0529940419631132</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.09265635428293072</v>
+      </c>
+      <c r="E91">
+        <v>-0.09980960672945524</v>
+      </c>
+      <c r="F91">
+        <v>0.05190007715912703</v>
+      </c>
+      <c r="G91">
+        <v>-0.05593521353080404</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1727198904360896</v>
+        <v>-0.1832420667249313</v>
       </c>
       <c r="C92">
-        <v>-0.2801612106216304</v>
+        <v>-0.2750306924500706</v>
       </c>
       <c r="D92">
-        <v>0.00742023564506818</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.001192064954699658</v>
+      </c>
+      <c r="E92">
+        <v>-0.07682836364182219</v>
+      </c>
+      <c r="F92">
+        <v>0.07460180162588342</v>
+      </c>
+      <c r="G92">
+        <v>0.02156449243439048</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1807384577312381</v>
+        <v>-0.2217852356389485</v>
       </c>
       <c r="C93">
-        <v>-0.3313606624925721</v>
+        <v>-0.3177527130351408</v>
       </c>
       <c r="D93">
-        <v>0.01513408253578979</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0008318341532012392</v>
+      </c>
+      <c r="E93">
+        <v>-0.036905687796023</v>
+      </c>
+      <c r="F93">
+        <v>0.05846700856899364</v>
+      </c>
+      <c r="G93">
+        <v>-0.01485579616347169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2710973582808798</v>
+        <v>-0.3377726214962488</v>
       </c>
       <c r="C94">
-        <v>0.1337795559132793</v>
+        <v>0.1866670083048876</v>
       </c>
       <c r="D94">
-        <v>-0.08025159419066859</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.402050433871241</v>
+      </c>
+      <c r="E94">
+        <v>-0.3111467976608152</v>
+      </c>
+      <c r="F94">
+        <v>-0.426001303144553</v>
+      </c>
+      <c r="G94">
+        <v>0.2330407698744104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.08442221054707096</v>
+        <v>-0.08031674427886043</v>
       </c>
       <c r="C95">
-        <v>0.08181691457381339</v>
+        <v>0.08367991800599428</v>
       </c>
       <c r="D95">
-        <v>0.08034474584631043</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1440779097451116</v>
+      </c>
+      <c r="E95">
+        <v>0.1508866137325509</v>
+      </c>
+      <c r="F95">
+        <v>0.003331465670109403</v>
+      </c>
+      <c r="G95">
+        <v>0.8954285056382171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2095777971631798</v>
+        <v>-0.1942797478246581</v>
       </c>
       <c r="C98">
-        <v>0.03007500718751821</v>
+        <v>0.04268586136271553</v>
       </c>
       <c r="D98">
-        <v>0.03582316724658759</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1395749474295275</v>
+      </c>
+      <c r="E98">
+        <v>0.1831907646445966</v>
+      </c>
+      <c r="F98">
+        <v>-0.04817518928505586</v>
+      </c>
+      <c r="G98">
+        <v>-0.103988819050776</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01105913432173668</v>
+        <v>-0.007907588746247207</v>
       </c>
       <c r="C101">
-        <v>0.02174733790058633</v>
+        <v>0.02307183694298664</v>
       </c>
       <c r="D101">
-        <v>-0.00993445398032456</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01495211885850324</v>
+      </c>
+      <c r="E101">
+        <v>-0.01153612307174845</v>
+      </c>
+      <c r="F101">
+        <v>0.1022429678413593</v>
+      </c>
+      <c r="G101">
+        <v>0.006004616446353374</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1280080039414408</v>
+        <v>-0.1236310753669997</v>
       </c>
       <c r="C102">
-        <v>0.06977781174314961</v>
+        <v>0.09618233602347855</v>
       </c>
       <c r="D102">
-        <v>-0.03721631609449454</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05050330585993342</v>
+      </c>
+      <c r="E102">
+        <v>-0.01286325268226286</v>
+      </c>
+      <c r="F102">
+        <v>0.02038635223812029</v>
+      </c>
+      <c r="G102">
+        <v>-0.02041461998316477</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.0006030858392460017</v>
+        <v>0.0001620520073539071</v>
       </c>
       <c r="C104">
-        <v>0.003362143504283111</v>
+        <v>0.00104073454682941</v>
       </c>
       <c r="D104">
-        <v>0.0321818585281116</v>
+        <v>0.02219007580774869</v>
+      </c>
+      <c r="E104">
+        <v>-0.001196942537920862</v>
+      </c>
+      <c r="F104">
+        <v>0.0025077920402525</v>
+      </c>
+      <c r="G104">
+        <v>0.01880874902989044</v>
       </c>
     </row>
   </sheetData>
